--- a/biology/Médecine/Georges_Sauvé/Georges_Sauvé.xlsx
+++ b/biology/Médecine/Georges_Sauvé/Georges_Sauvé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Georges_Sauv%C3%A9</t>
+          <t>Georges_Sauvé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Sauvé, né à Paris VIe le 9 octobre 1925 et mort à Laval le 8 décembre 2007, est un chirurgien et écrivain français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Georges_Sauv%C3%A9</t>
+          <t>Georges_Sauvé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a fait ses études au collège Stanislas, puis à la Faculté de médecine de Paris. Interne des hôpitaux de Paris (ancien style), puis chef de clinique chirurgicale à la faculté de 1957 à 1960, enfin assistant et chirurgien d’urgences à l'hôpital Boucicaut à partir de 1957, il exerce d’abord la chirurgie dans la capitale et s’installe définitivement à Laval en 1962, sa ville d'origine, où neuf générations de chirurgiens (cf : la famille Sauvé), issus du Collège royal de chirurgie de Paris, l’avaient précédé.
 Parallèlement à une profession à laquelle il est ancré, et surtout depuis sa retraite, il a écrit un certain nombre d’ouvrages, à connotation historique, appuyés sur des archives familiales, paternelles et maternelles, peu communes, abondantes en témoignages inédits et de première main sur les évènements et leurs acteurs.
